--- a/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_.0-.5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Implicit Retrieval/Tadpole_ET_summary_IR_500ms_NoLabels_.0-.5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,19 +6740,19 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>0.02</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -6763,46 +6764,46 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O52" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P52" s="1">
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V52" s="1">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -6811,25 +6812,25 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z52" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA52" s="1">
         <v>0</v>
       </c>
       <c r="AB52" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AD52" s="1">
         <v>0</v>
       </c>
       <c r="AE52" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AF52" s="1">
         <v>0</v>
@@ -6847,16 +6848,16 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AL52" s="1">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="AM52" s="1">
         <v>0</v>
       </c>
       <c r="AN52" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AO52" s="1">
         <v>0</v>
@@ -6864,141 +6865,141 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="1">
         <v>0.21</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="T53" s="1">
-        <v>0</v>
-      </c>
-      <c r="U53" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="V53" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W53" s="1">
-        <v>0</v>
-      </c>
-      <c r="X53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AF53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="AM53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AO53" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -7016,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -7040,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -7076,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AE54" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="1">
         <v>0</v>
@@ -7091,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="AI54" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK54" s="1">
         <v>0</v>
@@ -7103,36 +7104,36 @@
         <v>0</v>
       </c>
       <c r="AM54" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN54" s="1">
         <v>0</v>
       </c>
       <c r="AO54" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D55" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -7144,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -7168,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
       </c>
       <c r="U55" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -7201,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF55" s="1">
         <v>0</v>
@@ -7219,19 +7220,19 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AL55" s="1">
         <v>0</v>
       </c>
       <c r="AM55" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AN55" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO55" s="1">
         <v>0</v>
@@ -7239,25 +7240,25 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="G56" s="1">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -7269,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -7293,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -7323,16 +7324,16 @@
         <v>0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AD56" s="1">
         <v>0</v>
       </c>
       <c r="AE56" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG56" s="1">
         <v>0</v>
@@ -7347,16 +7348,16 @@
         <v>0</v>
       </c>
       <c r="AK56" s="1">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="AL56" s="1">
         <v>0</v>
       </c>
       <c r="AM56" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="1">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="AO56" s="1">
         <v>0</v>
@@ -7364,28 +7365,28 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F57" s="1">
         <v>0.02</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -7394,17 +7395,17 @@
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
         <v>0.13</v>
       </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
       <c r="O57" s="1">
         <v>0</v>
       </c>
@@ -7412,195 +7413,195 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R57" s="1">
         <v>0</v>
       </c>
       <c r="S57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="U57" s="1">
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
       </c>
       <c r="Z57" s="1">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AA57" s="1">
         <v>0</v>
       </c>
       <c r="AB57" s="1">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AC57" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AD57" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE57" s="1">
         <v>0</v>
       </c>
       <c r="AF57" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH57" s="1">
         <v>0</v>
       </c>
       <c r="AI57" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AJ57" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AK57" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM57" s="1">
         <v>0</v>
       </c>
       <c r="AN57" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E58" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="G58" s="1">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
         <v>0.21</v>
       </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0</v>
-      </c>
-      <c r="S58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="U58" s="1">
-        <v>0</v>
-      </c>
-      <c r="V58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W58" s="1">
-        <v>0</v>
-      </c>
       <c r="X58" s="1">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
         <v>0.19</v>
       </c>
-      <c r="AE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0</v>
-      </c>
       <c r="AG58" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AI58" s="1">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AL58" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="1">
         <v>0</v>
@@ -7609,176 +7610,176 @@
         <v>0</v>
       </c>
       <c r="AO58" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C59" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
       <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1">
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
         <v>0.19</v>
       </c>
-      <c r="N59" s="1">
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
         <v>0.16</v>
       </c>
-      <c r="O59" s="1">
-        <v>0</v>
-      </c>
-      <c r="P59" s="1">
+      <c r="AG59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="1">
         <v>0.25</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="AJ59" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="1">
         <v>0.01</v>
-      </c>
-      <c r="R59" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="S59" s="1">
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
-        <v>0</v>
-      </c>
-      <c r="U59" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="X59" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AB59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AG59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="AI59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D60" s="1">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I60" s="1">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K60" s="1">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L60" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="M60" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N60" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -7787,242 +7788,242 @@
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S60" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="U60" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="V60" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="1">
         <v>0.21</v>
       </c>
-      <c r="AA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AC60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="AG60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AJ60" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="AK60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AM60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="1">
-        <v>0</v>
-      </c>
       <c r="AO60" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="C61" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="1">
         <v>0.2</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
       <c r="G61" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0.2</v>
       </c>
       <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
         <v>0.23</v>
       </c>
-      <c r="J61" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="AL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="1">
         <v>0.02</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="S61" s="1">
-        <v>0</v>
-      </c>
-      <c r="T61" s="1">
-        <v>0</v>
-      </c>
-      <c r="U61" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="1">
-        <v>0</v>
-      </c>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AB61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AE61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="AL61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="AO61" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E62" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J62" s="1">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -8031,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P62" s="1">
         <v>0</v>
@@ -8049,16 +8050,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V62" s="1">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
         <v>0</v>
@@ -8067,16 +8068,16 @@
         <v>0</v>
       </c>
       <c r="AA62" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="1">
         <v>0</v>
@@ -8088,127 +8089,127 @@
         <v>0</v>
       </c>
       <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
         <v>0.17</v>
       </c>
-      <c r="AI62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AL62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AN62" s="1">
-        <v>0</v>
-      </c>
       <c r="AO62" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
       <c r="D63" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
         <v>0.13</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J63" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
         <v>0.1</v>
       </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="V63" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB63" s="1">
+      <c r="AD63" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
         <v>0.09</v>
       </c>
-      <c r="AC63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>0</v>
-      </c>
       <c r="AG63" s="1">
         <v>0</v>
       </c>
@@ -8216,22 +8217,22 @@
         <v>0</v>
       </c>
       <c r="AI63" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AJ63" s="1">
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AL63" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AN63" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AO63" s="1">
         <v>0</v>
@@ -8239,141 +8240,141 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.22</v>
       </c>
       <c r="D64" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AO64" s="1">
         <v>0.04</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="W64" s="1">
-        <v>0</v>
-      </c>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="AB64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="AN64" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AO64" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -8385,13 +8386,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -8400,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N65" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O65" s="1">
         <v>0</v>
@@ -8418,16 +8419,16 @@
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="U65" s="1">
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="W65" s="1">
         <v>0</v>
@@ -8436,25 +8437,25 @@
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1">
         <v>0</v>
       </c>
       <c r="AA65" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="1">
         <v>0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="1">
         <v>0</v>
       </c>
       <c r="AE65" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="1">
         <v>0</v>
@@ -8472,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="1">
         <v>0</v>
@@ -8481,30 +8482,30 @@
         <v>0</v>
       </c>
       <c r="AN65" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -8513,10 +8514,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K66" s="1">
         <v>0</v>
@@ -8540,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -8567,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AB66" s="1">
         <v>0</v>
@@ -8582,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AG66" s="1">
         <v>0</v>
@@ -8600,54 +8601,54 @@
         <v>0</v>
       </c>
       <c r="AL66" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM66" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AN66" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AO66" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I67" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M67" s="1">
         <v>0</v>
@@ -8656,28 +8657,28 @@
         <v>0</v>
       </c>
       <c r="O67" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P67" s="1">
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="R67" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -8686,206 +8687,206 @@
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Z67" s="1">
         <v>0</v>
       </c>
       <c r="AA67" s="1">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="AB67" s="1">
         <v>0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AD67" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE67" s="1">
         <v>0</v>
       </c>
       <c r="AF67" s="1">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AG67" s="1">
         <v>0</v>
       </c>
       <c r="AH67" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AI67" s="1">
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AK67" s="1">
         <v>0</v>
       </c>
       <c r="AL67" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AO67" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
         <v>0.08</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
       <c r="G68" s="1">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
         <v>0.05</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>0</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0</v>
-      </c>
-      <c r="U68" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="V68" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W68" s="1">
-        <v>0</v>
-      </c>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="AK68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AO68" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <v>0.04</v>
       </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
       <c r="H69" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -8894,28 +8895,28 @@
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N69" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -8924,59 +8925,59 @@
         <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="V69" s="1">
         <v>0</v>
       </c>
       <c r="W69" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
         <v>0.25</v>
       </c>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AK69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL69" s="1">
-        <v>0</v>
-      </c>
       <c r="AM69" s="1">
         <v>0</v>
       </c>
@@ -8984,12 +8985,12 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -9001,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -9019,74 +9020,74 @@
         <v>0</v>
       </c>
       <c r="K70" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
         <v>0.16</v>
       </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N70" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O70" s="1">
-        <v>0</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0.21</v>
-      </c>
       <c r="R70" s="1">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="U70" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="V70" s="1">
         <v>0</v>
       </c>
       <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="1">
         <v>0.23</v>
       </c>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="1">
-        <v>0.17</v>
-      </c>
       <c r="AH70" s="1">
         <v>0</v>
       </c>
@@ -9097,132 +9098,132 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AL70" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
       </c>
       <c r="AO70" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="F71" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H71" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K71" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
       </c>
       <c r="M71" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
         <v>0.21</v>
       </c>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="U71" s="1">
-        <v>0</v>
-      </c>
-      <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="1">
-        <v>0</v>
-      </c>
-      <c r="X71" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="Y71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="1">
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
         <v>0.18</v>
       </c>
-      <c r="AA71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="AC71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>0.23</v>
-      </c>
       <c r="AH71" s="1">
         <v>0</v>
       </c>
       <c r="AI71" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AJ71" s="1">
         <v>0</v>
       </c>
       <c r="AK71" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="1">
         <v>0</v>
@@ -9234,39 +9235,39 @@
         <v>0</v>
       </c>
       <c r="AO71" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
@@ -9275,108 +9276,108 @@
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
         <v>0.1</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="V72" s="1">
-        <v>0</v>
-      </c>
-      <c r="W72" s="1">
-        <v>0</v>
-      </c>
-      <c r="X72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AH72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AJ72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM72" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="AN72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO72" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -9391,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
@@ -9400,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="N73" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O73" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P73" s="1">
         <v>0</v>
@@ -9430,46 +9431,46 @@
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Y73" s="1">
         <v>0</v>
       </c>
       <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ73" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="1">
         <v>0</v>
@@ -9478,30 +9479,30 @@
         <v>0</v>
       </c>
       <c r="AM73" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AN73" s="1">
         <v>0</v>
       </c>
       <c r="AO73" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C74" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -9513,22 +9514,22 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J74" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M74" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N74" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O74" s="1">
         <v>0</v>
@@ -9537,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="R74" s="1">
         <v>0</v>
@@ -9549,28 +9550,28 @@
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="V74" s="1">
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="X74" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA74" s="1">
         <v>0</v>
       </c>
       <c r="AB74" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="1">
         <v>0</v>
@@ -9585,153 +9586,153 @@
         <v>0</v>
       </c>
       <c r="AG74" s="1">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="AH74" s="1">
         <v>0</v>
       </c>
       <c r="AI74" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="1">
         <v>0</v>
       </c>
       <c r="AK74" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AL74" s="1">
         <v>0</v>
       </c>
       <c r="AM74" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="1">
         <v>0</v>
       </c>
       <c r="AO74" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B75" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
         <v>0.2</v>
       </c>
-      <c r="C75" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="L75" s="1">
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
         <v>0.18</v>
       </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0</v>
-      </c>
-      <c r="P75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0</v>
-      </c>
-      <c r="U75" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="V75" s="1">
-        <v>0</v>
-      </c>
-      <c r="W75" s="1">
-        <v>0</v>
-      </c>
-      <c r="X75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AA75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="AH75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ75" s="1">
         <v>0</v>
       </c>
       <c r="AK75" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="1">
         <v>0</v>
       </c>
       <c r="AM75" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AN75" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO75" s="1">
         <v>0</v>
@@ -9739,124 +9740,124 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E76" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K76" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M76" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N76" s="1">
         <v>0</v>
       </c>
       <c r="O76" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-      <c r="T76" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="U76" s="1">
-        <v>0</v>
-      </c>
-      <c r="V76" s="1">
-        <v>0</v>
-      </c>
-      <c r="W76" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="X76" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="Y76" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AA76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AC76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AF76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AH76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AJ76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM76" s="1">
-        <v>0.23</v>
-      </c>
       <c r="AN76" s="1">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="AO76" s="1">
         <v>0</v>
@@ -9864,16 +9865,16 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D77" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -9888,82 +9889,82 @@
         <v>0</v>
       </c>
       <c r="I77" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
         <v>0.1</v>
       </c>
-      <c r="J77" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K77" s="1">
-        <v>0</v>
-      </c>
-      <c r="L77" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="M77" s="1">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1">
-        <v>0</v>
-      </c>
-      <c r="O77" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P77" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="U77" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="V77" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="W77" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="X77" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="Z77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AB77" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="1">
-        <v>0</v>
-      </c>
       <c r="AD77" s="1">
         <v>0</v>
       </c>
       <c r="AE77" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="1">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="AG77" s="1">
         <v>0</v>
       </c>
       <c r="AH77" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI77" s="1">
         <v>0</v>
@@ -9978,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="AM77" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN77" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="1">
         <v>0</v>
@@ -9989,70 +9990,70 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
         <v>0.08</v>
       </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0.09</v>
-      </c>
       <c r="N78" s="1">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="O78" s="1">
         <v>0</v>
       </c>
       <c r="P78" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q78" s="1">
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S78" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U78" s="1">
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
@@ -10061,52 +10062,52 @@
         <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="1">
         <v>0</v>
       </c>
       <c r="AA78" s="1">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="AB78" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AC78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="1">
         <v>0.1</v>
       </c>
-      <c r="AD78" s="1">
-        <v>0</v>
-      </c>
       <c r="AE78" s="1">
         <v>0</v>
       </c>
       <c r="AF78" s="1">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AG78" s="1">
         <v>0</v>
       </c>
       <c r="AH78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AL78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AI78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM78" s="1">
-        <v>0</v>
-      </c>
       <c r="AN78" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO78" s="1">
         <v>0</v>
@@ -10114,100 +10115,100 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C79" s="1">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="D79" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F79" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AA79" s="1">
         <v>0.2</v>
       </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0</v>
-      </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N79" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O79" s="1">
-        <v>0</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U79" s="1">
-        <v>0</v>
-      </c>
-      <c r="V79" s="1">
-        <v>0</v>
-      </c>
-      <c r="W79" s="1">
-        <v>0</v>
-      </c>
-      <c r="X79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="1">
-        <v>0.39</v>
-      </c>
       <c r="AB79" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="1">
         <v>0</v>
       </c>
       <c r="AD79" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="1">
         <v>0</v>
       </c>
       <c r="AF79" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="1">
         <v>0</v>
@@ -10216,22 +10217,22 @@
         <v>0</v>
       </c>
       <c r="AI79" s="1">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="AJ79" s="1">
         <v>0</v>
       </c>
       <c r="AK79" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL79" s="1">
         <v>0</v>
       </c>
       <c r="AM79" s="1">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN79" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AO79" s="1">
         <v>0</v>
@@ -10239,112 +10240,112 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="T80" s="1">
         <v>0.1</v>
       </c>
-      <c r="C80" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="I80" s="1">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O80" s="1">
-        <v>0</v>
-      </c>
-      <c r="P80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0</v>
-      </c>
-      <c r="T80" s="1">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="U80" s="1">
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="W80" s="1">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Z80" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AD80" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="1">
-        <v>0</v>
-      </c>
       <c r="AE80" s="1">
         <v>0</v>
       </c>
       <c r="AF80" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG80" s="1">
         <v>0</v>
       </c>
       <c r="AH80" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AI80" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AK80" s="1">
         <v>0</v>
@@ -10353,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AM80" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AN80" s="1">
         <v>0</v>
@@ -10364,28 +10365,28 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G81" s="1">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -10394,94 +10395,94 @@
         <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
         <v>0.13</v>
       </c>
-      <c r="M81" s="1">
-        <v>0</v>
-      </c>
-      <c r="N81" s="1">
-        <v>0</v>
-      </c>
-      <c r="O81" s="1">
-        <v>0</v>
-      </c>
       <c r="P81" s="1">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="Q81" s="1">
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AL81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="1">
         <v>0.17</v>
       </c>
-      <c r="T81" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U81" s="1">
-        <v>0</v>
-      </c>
-      <c r="V81" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W81" s="1">
-        <v>0</v>
-      </c>
-      <c r="X81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="AB81" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AC81" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AD81" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="AG81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH81" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AI81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="AK81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL81" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM81" s="1">
-        <v>0.24</v>
-      </c>
       <c r="AN81" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AO81" s="1">
         <v>0</v>
@@ -10489,135 +10490,135 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
         <v>0.03</v>
       </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
+      <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="AL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="1">
         <v>0.26</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="N82" s="1">
-        <v>0</v>
-      </c>
-      <c r="O82" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="P82" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="U82" s="1">
-        <v>0</v>
-      </c>
-      <c r="V82" s="1">
-        <v>0</v>
-      </c>
-      <c r="W82" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="X82" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="AB82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AH82" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AL82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM82" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="AN82" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AO82" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -10626,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -10635,19 +10636,19 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I83" s="1">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L83" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M83" s="1">
         <v>0</v>
@@ -10662,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -10671,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
@@ -10680,49 +10681,49 @@
         <v>0</v>
       </c>
       <c r="W83" s="1">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
         <v>0.12</v>
       </c>
-      <c r="X83" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="Y83" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AB83" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AC83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AH83" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="1">
-        <v>0.03</v>
-      </c>
       <c r="AJ83" s="1">
         <v>0</v>
       </c>
       <c r="AK83" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1">
         <v>0</v>
@@ -10734,85 +10735,85 @@
         <v>0</v>
       </c>
       <c r="AO83" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1">
         <v>0.1</v>
       </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>0</v>
-      </c>
-      <c r="O84" s="1">
-        <v>0</v>
-      </c>
-      <c r="P84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-      <c r="T84" s="1">
-        <v>0</v>
-      </c>
-      <c r="U84" s="1">
-        <v>0</v>
-      </c>
-      <c r="V84" s="1">
-        <v>0</v>
-      </c>
-      <c r="W84" s="1">
-        <v>0</v>
-      </c>
-      <c r="X84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="1">
-        <v>0</v>
-      </c>
       <c r="Z84" s="1">
         <v>0</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="AI84" s="1">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AJ84" s="1">
         <v>0</v>
@@ -10859,15 +10860,15 @@
         <v>0</v>
       </c>
       <c r="AO84" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -10876,76 +10877,76 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F85" s="1">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="G85" s="1">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="H85" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
         <v>0.27</v>
       </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-      <c r="K85" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="L85" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="M85" s="1">
-        <v>0</v>
-      </c>
-      <c r="N85" s="1">
-        <v>0</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0</v>
-      </c>
-      <c r="P85" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U85" s="1">
-        <v>0</v>
-      </c>
-      <c r="V85" s="1">
-        <v>0</v>
-      </c>
-      <c r="W85" s="1">
-        <v>0</v>
-      </c>
       <c r="X85" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y85" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AA85" s="1">
         <v>0</v>
       </c>
       <c r="AB85" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AC85" s="1">
         <v>0</v>
@@ -10954,25 +10955,25 @@
         <v>0</v>
       </c>
       <c r="AE85" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AF85" s="1">
         <v>0</v>
       </c>
       <c r="AG85" s="1">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
       </c>
       <c r="AI85" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AJ85" s="1">
         <v>0</v>
       </c>
       <c r="AK85" s="1">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AL85" s="1">
         <v>0</v>
@@ -10984,15 +10985,15 @@
         <v>0</v>
       </c>
       <c r="AO85" s="1">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B86" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -11001,16 +11002,16 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -11019,85 +11020,85 @@
         <v>0</v>
       </c>
       <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="1">
         <v>0.25</v>
       </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="N86" s="1">
-        <v>0</v>
-      </c>
-      <c r="O86" s="1">
-        <v>0</v>
-      </c>
-      <c r="P86" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="S86" s="1">
-        <v>0</v>
-      </c>
-      <c r="T86" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="U86" s="1">
-        <v>0</v>
-      </c>
-      <c r="V86" s="1">
-        <v>0</v>
-      </c>
-      <c r="W86" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="X86" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y86" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AA86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AC86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="1">
-        <v>0.19</v>
-      </c>
       <c r="AF86" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG86" s="1">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AH86" s="1">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AI86" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="1">
         <v>0</v>
       </c>
       <c r="AK86" s="1">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL86" s="1">
         <v>0</v>
@@ -11109,21 +11110,21 @@
         <v>0</v>
       </c>
       <c r="AO86" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -11135,13 +11136,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K87" s="1">
         <v>0</v>
@@ -11150,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N87" s="1">
         <v>0</v>
       </c>
       <c r="O87" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P87" s="1">
         <v>0</v>
@@ -11165,61 +11166,61 @@
         <v>0</v>
       </c>
       <c r="R87" s="1">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T87" s="1">
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="V87" s="1">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="W87" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X87" s="1">
         <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z87" s="1">
         <v>0</v>
       </c>
       <c r="AA87" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AB87" s="1">
         <v>0</v>
       </c>
       <c r="AC87" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AD87" s="1">
         <v>0</v>
       </c>
       <c r="AE87" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF87" s="1">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="AG87" s="1">
         <v>0</v>
       </c>
       <c r="AH87" s="1">
-        <v>0.33</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI87" s="1">
         <v>0</v>
       </c>
       <c r="AJ87" s="1">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AK87" s="1">
         <v>0</v>
@@ -11231,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AO87" s="1">
         <v>0</v>
@@ -11239,19 +11240,19 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D88" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -11260,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -11272,16 +11273,16 @@
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="M88" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N88" s="1">
         <v>0</v>
       </c>
       <c r="O88" s="1">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="P88" s="1">
         <v>0</v>
@@ -11293,62 +11294,62 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="V88" s="1">
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Y88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="1">
         <v>0.15</v>
       </c>
-      <c r="Z88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AB88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AD88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AG88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="AK88" s="1">
-        <v>0</v>
-      </c>
       <c r="AL88" s="1">
         <v>0</v>
       </c>
@@ -11356,136 +11357,1084 @@
         <v>0</v>
       </c>
       <c r="AN88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="1">
         <v>0.16</v>
-      </c>
-      <c r="AO88" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>125</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="A89" s="2">
+        <v>133</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="S89" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="X89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="AK89" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>134</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U90" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+      <c r="X90" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AE90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AH90" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AL90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AO90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>135</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+      <c r="X91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="AJ91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>130</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AH92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>131</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>0</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+      <c r="X93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>132</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>0</v>
+      </c>
+      <c r="X94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="AJ94" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AK94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="AM94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>102</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
         <v>0.13</v>
       </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2">
         <v>0.2</v>
       </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
-      <c r="L89" s="1">
+      <c r="U95" s="2">
+        <v>0</v>
+      </c>
+      <c r="V95" s="2">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="X95" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH95" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AM95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="AF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="AH96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
         <v>0.08</v>
       </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-      <c r="O89" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <v>0</v>
-      </c>
-      <c r="U89" s="1">
-        <v>0</v>
-      </c>
-      <c r="V89" s="1">
-        <v>0</v>
-      </c>
-      <c r="W89" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X89" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AH89" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="AI89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK89" s="1">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0</v>
+      </c>
+      <c r="U97" s="2">
         <v>0.15</v>
       </c>
-      <c r="AL89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO89" s="1">
-        <v>0.16</v>
-      </c>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="2"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="2"/>
+      <c r="AO97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
